--- a/data/income_statement/2digits/size/74_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/74_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>74-Other professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>74-Other professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>91609.94245</v>
+        <v>99544.58530000001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>99963.30236000002</v>
+        <v>103529.38057</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>120064.03876</v>
+        <v>109512.08609</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>142595.83943</v>
+        <v>123789.6787</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>230691.68419</v>
+        <v>245986.18773</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>333136.13575</v>
+        <v>339150.85155</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>384862.99953</v>
+        <v>376330.33252</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>678844.9893299999</v>
+        <v>666248.2012799999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1042067.07771</v>
+        <v>937195.94397</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>724095.5581799999</v>
+        <v>674871.5939100001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1010449.53662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>894826.74018</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1091579.278</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>73263.54259</v>
+        <v>83053.15656999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>84073.00567</v>
+        <v>92242.76101999999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>95948.30624999999</v>
+        <v>88510.36212000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>100839.79456</v>
+        <v>88256.87265999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>197049.04278</v>
+        <v>217946.57579</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>258951.59469</v>
+        <v>279099.07314</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>346247.0526699999</v>
+        <v>315289.45742</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>592586.94806</v>
+        <v>582136.6939</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>878471.26546</v>
+        <v>796236.2725</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>651399.9365</v>
+        <v>611227.48528</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>866937.5520199999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>776140.0112000001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>776910.447</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>17218.71137</v>
+        <v>14226.53404</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15027.192</v>
+        <v>10250.32734</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>22794.03309</v>
+        <v>19728.99213</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>40516.04783</v>
+        <v>34427.88595</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>32180.98958</v>
+        <v>27054.86779</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>71034.92906000001</v>
+        <v>56982.67950999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>35432.41901999999</v>
+        <v>59258.16756</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>73427.83917000001</v>
+        <v>70623.83514</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>154440.76699</v>
+        <v>133252.20672</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>65072.84521</v>
+        <v>57552.12142</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>130723.64734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>107182.09427</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>298754.673</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1127.68849</v>
+        <v>2264.89469</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>863.1046899999999</v>
+        <v>1036.29221</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1321.69942</v>
+        <v>1272.73184</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1239.99704</v>
+        <v>1104.92009</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1461.65183</v>
+        <v>984.7441499999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3149.612</v>
+        <v>3069.0989</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3183.52784</v>
+        <v>1782.70754</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>12830.2021</v>
+        <v>13487.67224</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9155.045259999999</v>
+        <v>7707.46475</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7622.77647</v>
+        <v>6091.987209999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>12788.33726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11504.63471</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>15914.158</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>595.1867900000001</v>
+        <v>584.52384</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>279.21614</v>
+        <v>278.9190400000001</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>608.58664</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1575.61059</v>
+        <v>1056.15874</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>4321.23307</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5517.90442</v>
+        <v>5501.34724</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2022.46475</v>
+        <v>3954.440930000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4741.793140000001</v>
+        <v>4902.76658</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6421.461730000001</v>
+        <v>3590.68415</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4402.30631</v>
+        <v>4334.373449999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>30238.72371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>29389.79933</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>17282.125</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>480.44921</v>
+        <v>469.78626</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>117.11572</v>
+        <v>116.81862</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>170.78769</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>966.39062</v>
+        <v>446.93877</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>3804.6639</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5266.07752</v>
+        <v>5250.32128</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1184.71621</v>
+        <v>3118.82205</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3744.57023</v>
+        <v>3905.54367</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5844.262309999999</v>
+        <v>3027.20208</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4291.9975</v>
+        <v>4224.06464</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>29994.34108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>29147.02186</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15005.949</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>112.14572</v>
@@ -1202,25 +1138,30 @@
         <v>212.21001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>374.7849299999999</v>
+        <v>376.47761</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>147.91743</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>348.85135</v>
+        <v>336.55435</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>51.04967</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>119.9892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>118.38404</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>60.131</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2.59186</v>
@@ -1238,16 +1179,16 @@
         <v>30.29442</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>39.61689</v>
+        <v>38.81594999999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>462.96361</v>
+        <v>459.14127</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>849.30548</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>228.34807</v>
+        <v>226.92772</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>59.25914</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>124.39343</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2216.045</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>91014.75566</v>
+        <v>98960.06146000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>99684.08622</v>
+        <v>103250.46153</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>119455.45212</v>
+        <v>108903.49945</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>141020.22884</v>
+        <v>122733.51996</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>226370.45112</v>
+        <v>241664.95466</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>327618.23133</v>
+        <v>333649.50431</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>382840.53478</v>
+        <v>372375.89159</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>674103.19619</v>
+        <v>661345.4347000001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1035645.61598</v>
+        <v>933605.2598199999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>719693.2518700002</v>
+        <v>670537.22046</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>980210.81291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>865436.94085</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1074297.153</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>59023.73177</v>
+        <v>54337.56351</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>75751.67855</v>
+        <v>67008.41721</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>81906.62821000001</v>
+        <v>77870.405</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>94379.97431999999</v>
+        <v>84021.68359</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>153401.74426</v>
+        <v>144174.86823</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>212472.7978</v>
+        <v>189562.13865</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>275940.30712</v>
+        <v>258346.97378</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>488845.82228</v>
+        <v>493782.50574</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>777931.17849</v>
+        <v>725696.54512</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>536827.72872</v>
+        <v>503572.6121500001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>687598.76868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>615413.1184200001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>773137.393</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>20923.87585</v>
@@ -1355,106 +1311,121 @@
         <v>64117.59667</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>14644.83348</v>
+        <v>14589.64958</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>16719.96684</v>
+        <v>15045.89422</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>17422.85651</v>
+        <v>31767.42915</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>82773.10356999999</v>
+        <v>79494.16545999999</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>120873.9703</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>68277.13794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>54023.99412</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8401.799000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2353.41281</v>
+        <v>2148.19652</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>14203.69906</v>
+        <v>10397.95413</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>19578.80005</v>
+        <v>17783.91073</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>21799.79192</v>
+        <v>16945.28844</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>10353.04548</v>
+        <v>2316.01345</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>52503.99423</v>
+        <v>39104.34516</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>61590.54862</v>
+        <v>40629.09577</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>105829.8247</v>
+        <v>109359.009</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>195382.65984</v>
+        <v>182185.25705</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>15555.78706</v>
+        <v>10529.21984</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>106994.3661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>77757.50812</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>197661.996</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>28201.51489</v>
+        <v>23720.56292</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>32881.66295</v>
+        <v>27944.14654</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>44701.91217</v>
+        <v>42986.71296</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>62558.92036</v>
+        <v>57055.13311</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>78931.10210999999</v>
+        <v>77741.25811</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>145297.44823</v>
+        <v>135841.62205</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>196732.95042</v>
+        <v>201775.14255</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>361653.4937</v>
+        <v>348683.68347</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>498141.46832</v>
+        <v>462939.8118</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>399912.7063</v>
+        <v>371690.08644</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>511939.5455299999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>483243.89707</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>566307.887</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7544.92822</v>
@@ -1463,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>526.1346799999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>0</v>
@@ -1478,100 +1449,115 @@
         <v>896.84124</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3939.64737</v>
+        <v>3972.38412</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1633.94676</v>
+        <v>1077.31081</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>485.26506</v>
+        <v>479.33557</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>387.71911</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>765.711</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>31991.02389</v>
+        <v>44622.49795</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>23932.40767</v>
+        <v>36242.04432</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>37548.82391</v>
+        <v>31033.09445</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>46640.25452</v>
+        <v>38711.83637</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>72968.70686000001</v>
+        <v>97490.08643000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>115145.43353</v>
+        <v>144087.36566</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>106900.22766</v>
+        <v>114028.91781</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>185257.37391</v>
+        <v>167562.92896</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>257714.43749</v>
+        <v>207908.7147</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>182865.52315</v>
+        <v>166964.60831</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>292612.04423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>250023.82243</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>301159.76</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>23397.0228</v>
+        <v>33953.95208</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>19594.69193</v>
+        <v>33105.68415</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>22671.30671</v>
+        <v>17430.88079</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>30021.87554</v>
+        <v>20969.80178</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>42024.80075</v>
+        <v>70314.24503000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>64912.05278</v>
+        <v>95062.88162</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>63398.0956</v>
+        <v>67383.83997</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>113837.11519</v>
+        <v>102694.56868</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>148275.90035</v>
+        <v>126707.64062</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>133622.45878</v>
+        <v>115869.62863</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>181310.12566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>163150.49652</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>223988.978</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>56.19462</v>
@@ -1592,13 +1578,13 @@
         <v>777.07006</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2960.74946</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>135.13657</v>
+        <v>0.53774</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>247.89849</v>
+        <v>0</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>0.05825</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>8007.50468</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>9251.353999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>973.13679</v>
+        <v>888.55696</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>478.87954</v>
+        <v>367.56046</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1051.10161</v>
+        <v>963.0993799999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2143.07443</v>
+        <v>1956.52348</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4025.35597</v>
+        <v>3360.16454</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9563.30824</v>
+        <v>7522.72248</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10528.12269</v>
+        <v>9624.24913</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>15130.57077</v>
+        <v>14173.14544</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>21884.76091</v>
+        <v>19710.8534</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>16476.65414</v>
+        <v>16334.79346</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>34906.69621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>33582.44432</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18369.81</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>22367.69139</v>
+        <v>33009.2005</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>19111.32721</v>
+        <v>32733.63851</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>21618.63429</v>
+        <v>16466.2106</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>27878.80111</v>
+        <v>19013.2783</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>37999.44478</v>
+        <v>66954.08049000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>54571.67448</v>
+        <v>86763.08908000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>49909.22345</v>
+        <v>57759.59084</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>98571.40784999999</v>
+        <v>88520.88550000002</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>126143.24095</v>
+        <v>106996.78722</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>117145.74639</v>
+        <v>99534.77692</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>138395.92477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>121560.54752</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>196367.814</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>8594.00109</v>
+        <v>10668.54587</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4337.71574</v>
+        <v>3136.36017</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>14877.5172</v>
+        <v>13602.21366</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>16618.37898</v>
+        <v>17742.03459</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>30943.90611</v>
+        <v>27175.8414</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>50233.38075</v>
+        <v>49024.48404</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>43502.13206</v>
+        <v>46645.07784000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>71420.25872</v>
+        <v>64868.36027999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>109438.53714</v>
+        <v>81201.07407999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>49243.06437000001</v>
+        <v>51094.97968</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>111301.91857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>86873.32591</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>77170.78200000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11527.3173</v>
+        <v>25317.13903</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>6351.05799</v>
+        <v>25667.84952</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>11891.51611</v>
+        <v>6695.74459</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7468.59495</v>
+        <v>2978.25602</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12175.77722</v>
+        <v>30711.27076</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7193.17221</v>
+        <v>19167.91424</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12126.45029</v>
+        <v>13791.93034</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>25671.23989</v>
+        <v>26325.81432</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>40842.78949</v>
+        <v>24694.68929</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>46337.78545</v>
+        <v>18294.25228</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>85333.55431000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>20881.72941</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>57534.917</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>16462.77835</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
@@ -1781,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>14098.16475</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
@@ -1790,25 +1801,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1337.8015</v>
+        <v>337.80123</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6207.71136</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>46.41842</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>43726.66456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>115.73044</v>
+        <v>20385.65464</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>34.68316</v>
@@ -1835,55 +1851,65 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>7711.75</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>370.50279</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5260.27</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>905.31256</v>
+        <v>394.03031</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>779.8240900000001</v>
+        <v>416.02884</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>622.00839</v>
+        <v>409.9560499999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1204.75316</v>
+        <v>624.9122</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>819.81823</v>
+        <v>1129.73535</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1300.28389</v>
+        <v>1789.4653</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1484.57232</v>
+        <v>1464.84165</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2476.19287</v>
+        <v>2081.01808</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5131.894139999999</v>
+        <v>3597.20398</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2361.15411</v>
+        <v>966.19846</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4505.576129999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2709.18663</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3179.111</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>244.53744</v>
@@ -1898,31 +1924,36 @@
         <v>0.01904</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>11.58151</v>
+        <v>4.04052</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>5.8733</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0.14895</v>
+        <v>0.07395</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0.3</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.72661</v>
+        <v>0.52661</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5200.4271</v>
+        <v>0.4271</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>104.37548</v>
@@ -1952,94 +1983,109 @@
         <v>1408.46449</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>186.35789</v>
+        <v>149.19083</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>197.07784</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>190.09077</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>18.39096</v>
+        <v>80.57169999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>18.42034</v>
+        <v>1831.20689</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>59.47657</v>
+        <v>58.6968</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>105.05091</v>
+        <v>104.4678</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>389.49046</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>19.97377</v>
+        <v>19.86897</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>51.68406</v>
+        <v>0.01131</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5.652969999999999</v>
+        <v>246.92065</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>86.54208</v>
+        <v>84.34972999999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>36.44776</v>
+        <v>35.99570000000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>151.41787</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>62.763</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3182.34419</v>
+        <v>1283.17733</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3227.96787</v>
+        <v>3430.58737</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9489.53125</v>
+        <v>6001.59423</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4679.63624</v>
+        <v>1932.64146</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>10400.41964</v>
+        <v>9942.392300000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5160.467650000001</v>
+        <v>12581.0447</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>10316.64368</v>
+        <v>12073.10215</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19738.92986</v>
+        <v>21642.44334</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>21672.77856</v>
+        <v>13581.01721</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29904.80151</v>
+        <v>17295.18333</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>34062.60265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14864.53686</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>42431.611</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>389.10601</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2052.506</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1359.14337</v>
@@ -2108,100 +2159,115 @@
         <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>7.95833</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>1530.21796</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5597.48286</v>
+        <v>1465.64876</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1989.63269</v>
+        <v>3192.03507</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1669.29991</v>
+        <v>174.29752</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1397.38693</v>
+        <v>234.46685</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>554.46738</v>
+        <v>5147.44738</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>664.4763</v>
+        <v>4729.564669999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>244.85945</v>
+        <v>225.35945</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>940.0051599999999</v>
+        <v>844.97349</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>6334.67225</v>
+        <v>6023.127270000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>808.81175</v>
+        <v>-272.8201399999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>770.8908900000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>676.67052</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2823.656</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>10952.33246</v>
+        <v>6399.373030000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3997.11412</v>
+        <v>5897.50337</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>10777.3852</v>
+        <v>7923.71388</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5250.879640000001</v>
+        <v>2763.4949</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7284.21165</v>
+        <v>8386.389999999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7336.552060000001</v>
+        <v>18227.79527</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>12141.29452</v>
+        <v>10304.72514</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12938.03806</v>
+        <v>19326.50947</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>21360.93458</v>
+        <v>13325.823</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>16943.25877</v>
+        <v>11982.32071</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31736.8113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>15657.85286</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>33718.101</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>123.05106</v>
+        <v>128.18445</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>127.3502</v>
+        <v>130.30243</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>0.9926799999999999</v>
@@ -2210,19 +2276,19 @@
         <v>16.50846</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7.28622</v>
+        <v>0.97761</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>49.62643</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>54.77129</v>
+        <v>54.02129</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>234.2255</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>250.82449</v>
+        <v>250.8108</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>265.83763</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>70.50927</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>11.693</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>36.36206</v>
@@ -2255,7 +2326,7 @@
         <v>941.9694000000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4493.32579</v>
+        <v>4616.48119</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>2424.14509</v>
@@ -2267,22 +2338,27 @@
         <v>1825.20429</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2342.31897</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2281.16594</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4030.405</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.14136</v>
+        <v>12.62436</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0.34799</v>
+        <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0</v>
@@ -2300,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.00104</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0.02651</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5588.69088</v>
+        <v>3949.11459</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3575.8894</v>
+        <v>2984.27671</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>10420.85633</v>
+        <v>7567.533</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5005.16686</v>
+        <v>2517.78212</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7108.96692</v>
+        <v>3795.371979999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5604.9771</v>
+        <v>12459.10593</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7253.417510000001</v>
+        <v>5631.593620000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10172.29635</v>
+        <v>16560.76776</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>14503.36148</v>
+        <v>7608.58025</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14560.29916</v>
+        <v>9599.361110000002</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28797.80404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>12795.10685</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>28229.944</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>372.68179</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>901.609</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>118.2092</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5085.8779</v>
+        <v>2154.87837</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>87.11064000000002</v>
+        <v>2576.16035</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>205.6874</v>
@@ -2444,109 +2540,124 @@
         <v>22.86219</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>60.4519</v>
+        <v>4482.5338</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>83.75851000000002</v>
+        <v>4120.872890000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>339.77993</v>
+        <v>2.62904</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>107.37112</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4391.20231</v>
+        <v>3250.88669</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>258.16699</v>
+        <v>258.16698</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>153.47072</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>138.3625</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>544.45</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1644.10259</v>
+        <v>2068.98961</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4074.79567</v>
+        <v>5534.22508</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1614.96419</v>
+        <v>1511.16939</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1287.93531</v>
+        <v>783.1214100000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3774.90473</v>
+        <v>44270.22116</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5659.54117</v>
+        <v>4235.22799</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5195.27124</v>
+        <v>3585.419960000001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7967.03379</v>
+        <v>7324.26624</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>13038.71063</v>
+        <v>10300.58614</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>23968.63244</v>
+        <v>7284.304369999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>20651.47443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7804.86443</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9785.704</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1585.36283</v>
+        <v>2010.24985</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4074.79567</v>
+        <v>5534.22508</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1589.71496</v>
+        <v>1485.92016</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>955.6454</v>
+        <v>450.8315</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1409.37987</v>
+        <v>44243.79887000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3361.2187</v>
+        <v>4235.22799</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5156.36468</v>
+        <v>3585.41996</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7961.50807</v>
+        <v>7318.740519999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>12842.22652</v>
+        <v>10104.10203</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7587.4495</v>
+        <v>7172.49265</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8610.48301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7176.740110000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9387.419</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>58.73976</v>
@@ -2561,13 +2672,13 @@
         <v>332.28991</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2365.52486</v>
+        <v>26.42229</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2298.32247</v>
+        <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>38.90656</v>
+        <v>0</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>5.525720000000001</v>
@@ -2576,94 +2687,109 @@
         <v>196.48411</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>16381.18294</v>
+        <v>111.81172</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>12040.99142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>628.12432</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>398.285</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>7524.883339999999</v>
+        <v>27517.32226</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2616.86394</v>
+        <v>17372.48124</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>14376.68392</v>
+        <v>10863.07498</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>17548.15898</v>
+        <v>17173.6743</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>32060.56695</v>
+        <v>5230.501</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>44430.45973</v>
+        <v>45729.37501999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>38292.01659000001</v>
+        <v>46546.86308</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>76186.42676</v>
+        <v>64543.39889</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>115881.68142</v>
+        <v>82269.35423</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>54668.95861</v>
+        <v>50122.60688</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>144247.18715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>84292.33802999998</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>91201.894</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1305.67025</v>
+        <v>2010.11006</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>835.18343</v>
+        <v>861.3495700000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1674.32465</v>
+        <v>1621.06108</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1170.19951</v>
+        <v>434.8808299999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1909.33187</v>
+        <v>2635.9838</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>13391.20638</v>
+        <v>1693.95748</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5185.1062</v>
+        <v>2677.64459</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5247.46344</v>
+        <v>3464.77317</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>14554.77172</v>
+        <v>10114.06889</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6653.78491</v>
+        <v>6104.96699</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9112.755969999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8802.57631</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7420.815</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>26.72856</v>
@@ -2678,7 +2804,7 @@
         <v>1.94283</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1305.89603</v>
+        <v>1301.72103</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>59.56124</v>
@@ -2687,100 +2813,115 @@
         <v>0.07476000000000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4.97089</v>
+        <v>88.50304</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>9.744149999999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>83.33370000000001</v>
+        <v>78.3837</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1092.50093</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1088.07563</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1286.923</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1278.94169</v>
+        <v>1983.3815</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>496.57301</v>
+        <v>522.73915</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1662.46212</v>
+        <v>1609.19855</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1168.25668</v>
+        <v>432.9379999999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>603.4358400000001</v>
+        <v>1334.26277</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>13331.64514</v>
+        <v>1634.39624</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5185.031440000001</v>
+        <v>2677.569829999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5242.49255</v>
+        <v>3376.27013</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>14545.02757</v>
+        <v>10104.32474</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6570.45121</v>
+        <v>6026.58329</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8020.25504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>7714.500680000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6133.892</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>530.11143</v>
+        <v>2231.57292</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>901.56247</v>
+        <v>22759.458</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>20581.07714</v>
+        <v>14055.21639</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>800.23612</v>
+        <v>672.35837</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>786.9026899999999</v>
+        <v>1040.31976</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5480.54981</v>
+        <v>3948.98343</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3147.67733</v>
+        <v>1315.61762</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>21915.15856</v>
+        <v>14725.49596</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>11186.98712</v>
+        <v>7808.882799999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>8076.641509999999</v>
+        <v>7858.81853</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>11095.0941</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7954.76647</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7175.488</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.702729999999999</v>
@@ -2795,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>20.59565</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>14.20146</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1.64167</v>
+        <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>213.21138</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>316.674</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>27.45413</v>
@@ -2834,184 +2980,207 @@
         <v>65.08135</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>84.06383</v>
+        <v>81.53888000000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>30.23004</v>
+        <v>28.31592</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15.94697</v>
+        <v>217.93143</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>61.38281</v>
+        <v>85.57079</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>266.06737</v>
+        <v>196.98681</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>149.66755</v>
+        <v>147.25925</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3891.30556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3866.7972</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>604.1559999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>492.95457</v>
+        <v>2194.41606</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>777.9233</v>
+        <v>22635.81883</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>20535.22436</v>
+        <v>14009.36361</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>735.15477</v>
+        <v>607.27702</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>682.24321</v>
+        <v>958.78088</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5436.118310000001</v>
+        <v>3920.66751</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3130.08869</v>
+        <v>1097.68619</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>21853.77575</v>
+        <v>14639.92517</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>10920.91975</v>
+        <v>7611.89599</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7657.052140000001</v>
+        <v>7441.63746</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6990.57716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3874.75789</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6254.658</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>8300.442160000001</v>
+        <v>27295.8594</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2550.4849</v>
+        <v>-4525.62719</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-4530.06857</v>
+        <v>-1571.080330000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>17918.12237</v>
+        <v>16936.19676</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>33182.99613</v>
+        <v>6826.165040000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>52341.1163</v>
+        <v>43474.34907</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>40329.44546</v>
+        <v>47908.89004999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>59518.73164</v>
+        <v>53282.6761</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>119249.46602</v>
+        <v>84574.54032</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>53246.10201</v>
+        <v>48368.75534</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>142264.84902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>85140.14786999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>91447.22100000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1383.79973</v>
+        <v>998.19008</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1059.81695</v>
+        <v>345.16634</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2590.08582</v>
+        <v>1874.15757</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2429.82019</v>
+        <v>2157.02639</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4731.111269999999</v>
+        <v>3908.60695</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6225.66833</v>
+        <v>5858.45516</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7901.696540000001</v>
+        <v>7110.91159</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>12430.27101</v>
+        <v>9645.220080000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>16941.52276</v>
+        <v>13282.09435</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6334.11501</v>
+        <v>4022.98479</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>25364.91854</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19418.03705</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20496.77</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6916.64243</v>
+        <v>26297.66932</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1490.66795</v>
+        <v>-4870.79353</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-7120.154390000001</v>
+        <v>-3445.2379</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>15488.30218</v>
+        <v>14779.17037</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>28451.88486</v>
+        <v>2917.55809</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>46115.44797</v>
+        <v>37615.89391</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>32427.74892</v>
+        <v>40797.97846</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>47088.46063</v>
+        <v>43637.45602</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>102307.94326</v>
+        <v>71292.44597</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>46911.987</v>
+        <v>44345.77054999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>116899.93048</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>65722.11082</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>70950.451</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>17</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>16</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>18</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>24</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>23</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>27</v>
-      </c>
-      <c r="F59" s="35" t="n">
+      <c r="H59" s="35" t="n">
         <v>37</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>36</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>49</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>76</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>